--- a/StoryEditorForScreenwriter/bin/Debug/Item.xlsx
+++ b/StoryEditorForScreenwriter/bin/Debug/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\C#\ExcelWinForm\ExcelWinForm\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\git\StoryEditorForScreenwriter\StoryEditorForScreenwriter\StoryEditorForScreenwriter\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614D4D50-C680-43F4-AD36-F0F706F6728A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F4A1DC-DE61-472F-BEDF-1B0BE9CB72FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="2340" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="2448" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>saf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,10 +640,17 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
